--- a/assets/model_accu_scores_1_4_5_6.xlsx
+++ b/assets/model_accu_scores_1_4_5_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,20 +436,25 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>KNN</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>GaussianNB</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>BaggingTree</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>MLP</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>VotingClassifier</t>
         </is>
@@ -460,15 +465,18 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
         <v>0.99</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.98</v>
-      </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0.988</v>
       </c>
       <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
         <v>0.99</v>
       </c>
     </row>
@@ -486,6 +494,9 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -505,6 +516,9 @@
       <c r="E4" t="n">
         <v>1</v>
       </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -522,21 +536,27 @@
       <c r="E5" t="n">
         <v>1</v>
       </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="C6" t="n">
         <v>0.997</v>
       </c>
-      <c r="C6" t="n">
-        <v>0.978</v>
-      </c>
       <c r="D6" t="n">
-        <v>0.988</v>
+        <v>0.98</v>
       </c>
       <c r="E6" t="n">
+        <v>0.992</v>
+      </c>
+      <c r="F6" t="n">
         <v>0.997</v>
       </c>
     </row>
@@ -556,6 +576,9 @@
       <c r="E7" t="n">
         <v>1</v>
       </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -573,22 +596,28 @@
       <c r="E8" t="n">
         <v>1</v>
       </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
+        <v>0.978</v>
+      </c>
+      <c r="C9" t="n">
         <v>0.965</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.97</v>
       </c>
-      <c r="D9" t="n">
-        <v>0.978</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.975</v>
+      <c r="F9" t="n">
+        <v>0.968</v>
       </c>
     </row>
   </sheetData>
